--- a/Crawling/crawling_data/day_genie/day_genie_20220121.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220121.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="231">
   <si>
     <t>날짜</t>
   </si>
@@ -109,8 +109,7 @@
     <t>쉬어 (Feat. MINO) (Prod. by GRAY)</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>바라만 본다</t>
@@ -236,8 +235,7 @@
     <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>Off My Face</t>
@@ -577,9 +575,6 @@
   </si>
   <si>
     <t>쇼미더머니 10 Episode 1</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>MSG워너비 1집</t>
@@ -1531,7 +1526,7 @@
         <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1548,7 +1543,7 @@
         <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1582,7 +1577,7 @@
         <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1617,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1651,7 +1646,7 @@
         <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1668,7 +1663,7 @@
         <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1685,7 +1680,7 @@
         <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1702,7 +1697,7 @@
         <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1770,7 +1765,7 @@
         <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1804,7 +1799,7 @@
         <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1838,7 +1833,7 @@
         <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1855,7 +1850,7 @@
         <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1872,7 +1867,7 @@
         <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1889,7 +1884,7 @@
         <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1906,7 +1901,7 @@
         <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1923,7 +1918,7 @@
         <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1940,7 +1935,7 @@
         <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1957,7 +1952,7 @@
         <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1974,7 +1969,7 @@
         <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2008,7 +2003,7 @@
         <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2025,7 +2020,7 @@
         <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2042,7 +2037,7 @@
         <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2076,7 +2071,7 @@
         <v>143</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2127,7 +2122,7 @@
         <v>148</v>
       </c>
       <c r="E62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2144,7 +2139,7 @@
         <v>114</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2161,7 +2156,7 @@
         <v>111</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2195,7 +2190,7 @@
         <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2212,7 +2207,7 @@
         <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2229,7 +2224,7 @@
         <v>130</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2246,7 +2241,7 @@
         <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2263,7 +2258,7 @@
         <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2280,7 +2275,7 @@
         <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2297,7 +2292,7 @@
         <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2314,7 +2309,7 @@
         <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2365,7 +2360,7 @@
         <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2382,7 +2377,7 @@
         <v>158</v>
       </c>
       <c r="E77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2399,7 +2394,7 @@
         <v>159</v>
       </c>
       <c r="E78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2416,7 +2411,7 @@
         <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2433,7 +2428,7 @@
         <v>111</v>
       </c>
       <c r="E80" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2467,7 +2462,7 @@
         <v>161</v>
       </c>
       <c r="E82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2603,7 +2598,7 @@
         <v>158</v>
       </c>
       <c r="E90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2620,7 +2615,7 @@
         <v>137</v>
       </c>
       <c r="E91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2637,7 +2632,7 @@
         <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2654,7 +2649,7 @@
         <v>170</v>
       </c>
       <c r="E93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2722,7 +2717,7 @@
         <v>172</v>
       </c>
       <c r="E97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2739,7 +2734,7 @@
         <v>173</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2756,7 +2751,7 @@
         <v>144</v>
       </c>
       <c r="E99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2790,7 +2785,7 @@
         <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
